--- a/data/trans_camb/P14B23-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Clase-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>0.6233555522462204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.036036587865955</v>
+        <v>3.036036587865954</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04599307759224</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.792749329679812</v>
+        <v>1.792749329679811</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.280976452622973</v>
+        <v>-2.192427907807282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.09406351957861</v>
+        <v>-1.252415664586697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.350168814066025</v>
+        <v>-2.153578462692946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2199198922050384</v>
+        <v>0.08817103669092881</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.463172730318686</v>
+        <v>-1.517734756035626</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.08811231733451506</v>
+        <v>0.149927062713965</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8273516772709467</v>
+        <v>0.9460684905799367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.395782085598174</v>
+        <v>2.419101260052854</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.066242370646884</v>
+        <v>3.331162775922376</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.283951183603247</v>
+        <v>5.367988151048884</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.572755243457709</v>
+        <v>1.427609582355844</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.406389123322782</v>
+        <v>3.260387408549129</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8986994241235901</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6012442838224065</v>
+        <v>-0.6161041343864999</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6506745943587169</v>
+        <v>-0.6260169459385759</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1449207544543348</v>
+        <v>-0.02765200454230869</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5739503662543393</v>
+        <v>-0.5894831016738735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1149708775192565</v>
+        <v>0.03850078148812226</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.069664627422264</v>
+        <v>3.165786963968903</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.098873752517696</v>
+        <v>4.419512306635315</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.04625811690578</v>
+        <v>4.070061634162895</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.033373225871799</v>
+        <v>7.361595564035069</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.945189179936726</v>
+        <v>1.529236552851581</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.710602030232657</v>
+        <v>3.431354698440801</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>-0.8573081833796171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.7754581315319</v>
+        <v>3.775458131531902</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.683705817943435</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.730699904279449</v>
+        <v>-2.753767121629632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.568041122409501</v>
+        <v>-1.446375781154258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.604447821202234</v>
+        <v>-3.657144157111995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7514563270546506</v>
+        <v>0.692482734161291</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.297879347294121</v>
+        <v>-2.294965831456737</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1097018244038668</v>
+        <v>0.3143803600591052</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9909552539450577</v>
+        <v>1.174700351182881</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.414188169459642</v>
+        <v>2.482328244564349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.713049039298335</v>
+        <v>1.708575861040003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.536876648940755</v>
+        <v>6.677324821504473</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7658159026713721</v>
+        <v>0.8004386186557754</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.612535452969877</v>
+        <v>3.72661678820347</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>-0.2648130411844543</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.166197371095</v>
+        <v>1.166197371095001</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.270162550850696</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8568742310519284</v>
+        <v>-0.865670002588062</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5237097335410867</v>
+        <v>-0.5181301991617956</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7386001248280063</v>
+        <v>-0.7410517259702946</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.005000865052160832</v>
+        <v>0.09641841104380108</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6821534731684789</v>
+        <v>-0.6724581973386348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01882838053465389</v>
+        <v>-0.000557552440842473</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.149166540341988</v>
+        <v>1.466910806450809</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.749884637186641</v>
+        <v>2.753178706131683</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.169178611420422</v>
+        <v>1.302331720997772</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.508961824586569</v>
+        <v>3.854295479330336</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4775177271527947</v>
+        <v>0.5475134507181001</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.207353208452323</v>
+        <v>2.010156410887713</v>
       </c>
     </row>
     <row r="16">
@@ -932,13 +932,13 @@
         <v>-2.87550944789874</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6614670259506579</v>
+        <v>0.6614670259506572</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.5141409907733971</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.651176416478457</v>
+        <v>1.651176416478456</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-2.277119686527965</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.078586722955032</v>
+        <v>-5.200470845476012</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.644736493150802</v>
+        <v>-1.844348297814817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.000855385903676</v>
+        <v>-4.63820919145435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.148475178043349</v>
+        <v>-3.508963410302467</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.43258814326916</v>
+        <v>-4.476368007090765</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.513760476829769</v>
+        <v>-1.419124802648078</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.905267035086242</v>
+        <v>-1.011806521382259</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.533577915502025</v>
+        <v>3.517852449958765</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.446504547770468</v>
+        <v>6.574956902329367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.274073464701485</v>
+        <v>6.528016291416374</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.2184956591661082</v>
+        <v>-0.1991491234306697</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.409108793622092</v>
+        <v>3.29569792254512</v>
       </c>
     </row>
     <row r="19">
@@ -1010,13 +1010,13 @@
         <v>-0.6733403132561392</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1548916539946306</v>
+        <v>0.1548916539946304</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.05961191465143745</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.1914451276594714</v>
+        <v>0.1914451276594713</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4108946338806608</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8698843489121966</v>
+        <v>-0.8875693281998442</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3455632943787798</v>
+        <v>-0.3406418969569601</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4730928282617516</v>
+        <v>-0.4696162830823767</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3025614197447379</v>
+        <v>-0.3180996236430031</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6445543114929154</v>
+        <v>-0.6666000235348762</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2334566804259141</v>
+        <v>-0.2231003013972092</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1783186674685872</v>
+        <v>-0.2718488231606468</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.170343577381067</v>
+        <v>1.169761377421749</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.037129496475266</v>
+        <v>1.013520246978537</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.021627494673855</v>
+        <v>1.093055719496687</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.005760441361176809</v>
+        <v>-0.003728699339496372</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7393831387098508</v>
+        <v>0.7341430996556643</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>-1.928436115051197</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7326564981348899</v>
+        <v>0.7326564981348871</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.8438054462780321</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.348940720163546</v>
+        <v>1.348940720163547</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.641866232346507</v>
+        <v>-1.582304445177422</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.008027658322999747</v>
+        <v>0.01188172898796124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.47408942395779</v>
+        <v>-4.414764172073563</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.551213326922465</v>
+        <v>-1.638002592299056</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.159963370456109</v>
+        <v>-2.045158994785157</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.02894480216854532</v>
+        <v>-0.00661177929208436</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.137816656021491</v>
+        <v>1.457460223754746</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.10809841940849</v>
+        <v>3.188095747224454</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5163270545019053</v>
+        <v>0.278049969455695</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.188920467327082</v>
+        <v>3.062907513092739</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4295021177730334</v>
+        <v>0.5797848921941628</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.814651865369044</v>
+        <v>2.792240152182025</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>-0.2793821601922644</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.1061436018181972</v>
+        <v>0.1061436018181968</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1886261745220186</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.301545254091175</v>
+        <v>0.3015452540911753</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.441779488626833</v>
+        <v>-0.4327927455734129</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02174011783560266</v>
+        <v>-0.01481333880953818</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5245762887646238</v>
+        <v>-0.5372752669239556</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1875220165897156</v>
+        <v>-0.2038311276725533</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4161068959115257</v>
+        <v>-0.4061522323130636</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.005563929429696969</v>
+        <v>-0.003504721259382967</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5371309578664265</v>
+        <v>0.6935877363855713</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.44251705294541</v>
+        <v>1.427319129751559</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1055129338548594</v>
+        <v>0.08520073092295541</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5839353574369115</v>
+        <v>0.5841892267623146</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1131605281585048</v>
+        <v>0.1646000352082958</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7490982842376118</v>
+        <v>0.731967745703799</v>
       </c>
     </row>
     <row r="28">
@@ -1252,19 +1252,19 @@
         <v>1.378096260914652</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.59529499781766</v>
+        <v>2.595294997817658</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-1.508916777096878</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.039235379830078</v>
+        <v>-1.039235379830077</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.7104627227352472</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.3991246180738817</v>
+        <v>0.3991246180738803</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2322611580290017</v>
+        <v>-0.2452787032542341</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7933855024108639</v>
+        <v>0.693720156573493</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.392075614788393</v>
+        <v>-4.780461463876788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.941441189788033</v>
+        <v>-3.791460310727997</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.6270275598574</v>
+        <v>-2.756419376051755</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.447599829081912</v>
+        <v>-1.455649702024432</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.301410653003481</v>
+        <v>3.349621353720309</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.869745730164039</v>
+        <v>4.698240800052299</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.631371610473331</v>
+        <v>1.902427487377319</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.766104896596455</v>
+        <v>2.022487191889081</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.259373378261032</v>
+        <v>1.222329227863803</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.438504367115268</v>
+        <v>2.315724198264248</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>0.8065585535201487</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1.518948595077516</v>
+        <v>1.518948595077515</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.1343923540200162</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.09255996831380107</v>
+        <v>-0.09255996831380095</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.09600823772617624</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05393562531596206</v>
+        <v>0.05393562531596187</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1289213783174396</v>
+        <v>-0.2252487712182833</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.205845478274669</v>
+        <v>0.2136078334039445</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.344222441134055</v>
+        <v>-0.3678880352980946</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2982409233816787</v>
+        <v>-0.2925793619382804</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3195477046794701</v>
+        <v>-0.3239922829308368</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.173874346268431</v>
+        <v>-0.175470234769224</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.59139677521808</v>
+        <v>4.055807923278596</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.743538927674221</v>
+        <v>5.320733371737713</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1698211251421342</v>
+        <v>0.1960598417221522</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1754146974741743</v>
+        <v>0.2123404257126068</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2050186892652934</v>
+        <v>0.1794535366603469</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3911313482604694</v>
+        <v>0.3679718276970634</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>-1.230489198911507</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-1.709288513105332</v>
+        <v>-1.709288513105329</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-1.055325104168071</v>
@@ -1438,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.024717389381033</v>
+        <v>1.934454553706337</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.807594200706724</v>
+        <v>-3.546826135800681</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.224588898666683</v>
+        <v>-4.469238686176578</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.114901773727551</v>
+        <v>-3.025615357088457</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.505347086105499</v>
+        <v>-2.724911490612142</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.681781793591863</v>
+        <v>1.408821079189278</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.35826132376948</v>
+        <v>9.582175376390492</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.266440789067114</v>
+        <v>1.225219917359571</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.7124559136530134</v>
+        <v>0.6453007506389917</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.8890571814554875</v>
+        <v>0.9337595592286856</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.713828338525399</v>
+        <v>1.534606328578635</v>
       </c>
     </row>
     <row r="37">
@@ -1500,7 +1500,7 @@
         <v>-0.1275835449031153</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.1772279577562036</v>
+        <v>-0.1772279577562033</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.1357456976087951</v>
@@ -1519,16 +1519,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.3539482921237788</v>
+        <v>-0.3256018550319011</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3802263495059041</v>
+        <v>-0.4079035964583132</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.349237035482677</v>
+        <v>-0.3430024339714856</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2867367856917171</v>
+        <v>-0.3174033570267759</v>
       </c>
     </row>
     <row r="39">
@@ -1541,16 +1541,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.1498281083416098</v>
+        <v>0.1471178373058976</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.08309689661268867</v>
+        <v>0.07827663445522613</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1408297320815131</v>
+        <v>0.1533706755083261</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2485875496039744</v>
+        <v>0.2228534521789944</v>
       </c>
     </row>
     <row r="40">
@@ -1568,7 +1568,7 @@
         <v>-0.4557008383638633</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1.392463026155237</v>
+        <v>1.392463026155236</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-1.316655086701759</v>
@@ -1580,7 +1580,7 @@
         <v>-0.8840559054737983</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.6977518654076836</v>
+        <v>0.697751865407683</v>
       </c>
     </row>
     <row r="41">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.102488581612359</v>
+        <v>-1.096752976271122</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5839961988110905</v>
+        <v>0.561871506822882</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.544567639307039</v>
+        <v>-2.57466693768088</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.203932298798509</v>
+        <v>-1.196009731202108</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.621949914325147</v>
+        <v>-1.618581201605706</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.0107907243371004</v>
+        <v>-0.02346332627632002</v>
       </c>
     </row>
     <row r="42">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.3573455219411004</v>
+        <v>0.3140370293857502</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.309015784971096</v>
+        <v>2.255426314082185</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.03951677849849687</v>
+        <v>-0.1246083179753816</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.154206004819829</v>
+        <v>1.153169950134472</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.1837730555958147</v>
+        <v>-0.1826636871230559</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.527805537866349</v>
+        <v>1.489546829889673</v>
       </c>
     </row>
     <row r="43">
@@ -1646,7 +1646,7 @@
         <v>-0.1874246750482946</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.5727045206476536</v>
+        <v>0.5727045206476534</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.163489422297717</v>
@@ -1658,7 +1658,7 @@
         <v>-0.1671025578279529</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1318877242003845</v>
+        <v>0.1318877242003843</v>
       </c>
     </row>
     <row r="44">
@@ -1669,22 +1669,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3947618862525028</v>
+        <v>-0.3990103561842617</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1897223523018322</v>
+        <v>0.1974611361733787</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.297129388600803</v>
+        <v>-0.2949920100876073</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.135621324062577</v>
+        <v>-0.1361063204401899</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2864753444681752</v>
+        <v>-0.2854978454158122</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.002633529910870993</v>
+        <v>-0.004437078812381287</v>
       </c>
     </row>
     <row r="45">
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1902997806586935</v>
+        <v>0.1506454826103608</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.129524282273561</v>
+        <v>1.057715769504124</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.004927020526145903</v>
+        <v>-0.01685367973405773</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.157255855394818</v>
+        <v>0.1534102276314835</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03580095731984879</v>
+        <v>-0.03788870724887144</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3074228316192942</v>
+        <v>0.3041716771141351</v>
       </c>
     </row>
     <row r="46">
